--- a/attendance-files/SCM/SCM-R (EFGH) Attendance.xlsx
+++ b/attendance-files/SCM/SCM-R (EFGH) Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="165">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -90,6 +90,9 @@
     <t>Gokul S</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP233</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
   </si>
   <si>
     <t>Nenavathu Divya</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024PGP273</t>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1633,10 +1633,18 @@
       <c r="N7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
@@ -1663,11 +1671,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1693,10 +1701,18 @@
       <c r="N8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="O8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -1713,10 +1729,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>9</v>
@@ -1727,7 +1743,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1753,10 +1769,18 @@
       <c r="N9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
@@ -1773,10 +1797,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>9</v>
@@ -1787,7 +1811,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1813,10 +1837,18 @@
       <c r="N10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
@@ -1833,21 +1865,21 @@
         <v>5</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1873,10 +1905,18 @@
       <c r="N11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
+      <c r="O11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
@@ -1893,10 +1933,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>9</v>
@@ -1907,13 +1947,13 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>20</v>
@@ -1933,10 +1973,18 @@
       <c r="N12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
+      <c r="O12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
@@ -1967,7 +2015,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1976,7 +2024,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J13" s="29" t="s">
         <v>20</v>
@@ -1993,10 +2041,18 @@
       <c r="N13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -2023,11 +2079,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2036,7 +2092,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>20</v>
@@ -2053,10 +2109,18 @@
       <c r="N14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="O14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -2083,11 +2147,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2113,10 +2177,18 @@
       <c r="N15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
+      <c r="O15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
@@ -2147,7 +2219,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2168,15 +2240,23 @@
         <v>20</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
@@ -2207,7 +2287,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2225,18 +2305,26 @@
         <v>20</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
@@ -2263,11 +2351,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2279,7 +2367,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>20</v>
@@ -2293,10 +2381,18 @@
       <c r="N18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+      <c r="O18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
@@ -2327,13 +2423,13 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>20</v>
@@ -2351,12 +2447,20 @@
         <v>21</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
@@ -2383,11 +2487,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2413,10 +2517,18 @@
       <c r="N20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
+      <c r="O20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
@@ -2447,13 +2559,13 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>20</v>
@@ -2471,12 +2583,20 @@
         <v>21</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -2507,7 +2627,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2533,10 +2653,18 @@
       <c r="N22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
@@ -2567,7 +2695,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2593,10 +2721,18 @@
       <c r="N23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
@@ -2627,7 +2763,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2653,10 +2789,18 @@
       <c r="N24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
+      <c r="O24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
@@ -2687,7 +2831,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2713,10 +2857,18 @@
       <c r="N25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
@@ -2747,7 +2899,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2765,18 +2917,26 @@
         <v>20</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
@@ -2803,11 +2963,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2816,13 +2976,13 @@
         <v>20</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>20</v>
@@ -2833,10 +2993,18 @@
       <c r="N27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
+      <c r="O27" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
@@ -2867,7 +3035,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -2893,10 +3061,18 @@
       <c r="N28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
@@ -2923,11 +3099,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -2953,10 +3129,18 @@
       <c r="N29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
+      <c r="O29" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
@@ -2987,7 +3171,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3011,12 +3195,20 @@
         <v>21</v>
       </c>
       <c r="N30" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
@@ -3047,7 +3239,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3071,12 +3263,20 @@
         <v>21</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
@@ -3103,17 +3303,17 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>20</v>
@@ -3133,10 +3333,18 @@
       <c r="N32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
@@ -3167,7 +3375,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3193,10 +3401,18 @@
       <c r="N33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
@@ -3227,7 +3443,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3253,10 +3469,18 @@
       <c r="N34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
+      <c r="O34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
@@ -3283,11 +3507,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3305,7 +3529,7 @@
         <v>20</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M35" s="29" t="s">
         <v>21</v>
@@ -3313,10 +3537,18 @@
       <c r="N35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
@@ -3347,7 +3579,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3373,10 +3605,18 @@
       <c r="N36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
@@ -3403,17 +3643,17 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I37" s="29" t="s">
         <v>20</v>
@@ -3433,10 +3673,18 @@
       <c r="N37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
+      <c r="O37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -3467,7 +3715,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3493,10 +3741,18 @@
       <c r="N38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
+      <c r="O38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
@@ -3527,13 +3783,13 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I39" s="29" t="s">
         <v>20</v>
@@ -3553,10 +3809,18 @@
       <c r="N39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
@@ -3587,7 +3851,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3608,15 +3872,23 @@
         <v>20</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
@@ -3643,11 +3915,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3673,10 +3945,18 @@
       <c r="N41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
@@ -3703,11 +3983,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3733,10 +4013,18 @@
       <c r="N42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
@@ -3763,11 +4051,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3785,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="L43" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M43" s="29" t="s">
         <v>21</v>
@@ -3793,10 +4081,18 @@
       <c r="N43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
+      <c r="O43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S43" s="35"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
@@ -3823,11 +4119,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3853,10 +4149,18 @@
       <c r="N44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
@@ -3883,11 +4187,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -3896,7 +4200,7 @@
         <v>20</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J45" s="29" t="s">
         <v>20</v>
@@ -3913,10 +4217,18 @@
       <c r="N45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
+      <c r="O45" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
@@ -3943,11 +4255,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -3973,10 +4285,18 @@
       <c r="N46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
@@ -4003,11 +4323,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4033,10 +4353,18 @@
       <c r="N47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
@@ -4067,7 +4395,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4076,7 +4404,7 @@
         <v>20</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J48" s="29" t="s">
         <v>20</v>
@@ -4093,10 +4421,18 @@
       <c r="N48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
@@ -4127,7 +4463,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4139,10 +4475,10 @@
         <v>20</v>
       </c>
       <c r="J49" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L49" s="29" t="s">
         <v>20</v>
@@ -4153,10 +4489,18 @@
       <c r="N49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
@@ -4183,11 +4527,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4199,24 +4543,32 @@
         <v>20</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K50" s="29" t="s">
         <v>20</v>
       </c>
       <c r="L50" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M50" s="29" t="s">
         <v>21</v>
       </c>
       <c r="N50" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
@@ -4243,11 +4595,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4273,10 +4625,18 @@
       <c r="N51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
+      <c r="O51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S51" s="35"/>
       <c r="T51" s="35"/>
       <c r="U51" s="35"/>
@@ -4307,7 +4667,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4333,10 +4693,18 @@
       <c r="N52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
       <c r="U52" s="35"/>
@@ -4367,7 +4735,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4393,10 +4761,18 @@
       <c r="N53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S53" s="35"/>
       <c r="T53" s="35"/>
       <c r="U53" s="35"/>
@@ -4427,7 +4803,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4453,10 +4829,18 @@
       <c r="N54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S54" s="35"/>
       <c r="T54" s="35"/>
       <c r="U54" s="35"/>
@@ -4483,11 +4867,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4513,10 +4897,18 @@
       <c r="N55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S55" s="35"/>
       <c r="T55" s="35"/>
       <c r="U55" s="35"/>
@@ -4543,11 +4935,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4573,10 +4965,18 @@
       <c r="N56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
+      <c r="O56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S56" s="35"/>
       <c r="T56" s="35"/>
       <c r="U56" s="35"/>
@@ -4603,11 +5003,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -4633,10 +5033,18 @@
       <c r="N57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
+      <c r="O57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="35"/>
@@ -4667,7 +5075,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4693,10 +5101,18 @@
       <c r="N58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="35"/>
@@ -4727,7 +5143,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4748,15 +5164,23 @@
         <v>20</v>
       </c>
       <c r="M59" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="35"/>
@@ -4783,11 +5207,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4799,7 +5223,7 @@
         <v>20</v>
       </c>
       <c r="J60" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K60" s="29" t="s">
         <v>20</v>
@@ -4813,10 +5237,18 @@
       <c r="N60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
+      <c r="O60" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="35"/>
@@ -4843,17 +5275,17 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I61" s="29" t="s">
         <v>20</v>
@@ -4865,18 +5297,26 @@
         <v>20</v>
       </c>
       <c r="L61" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M61" s="29" t="s">
         <v>21</v>
       </c>
       <c r="N61" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="35"/>
@@ -4907,7 +5347,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4925,7 +5365,7 @@
         <v>20</v>
       </c>
       <c r="L62" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M62" s="29" t="s">
         <v>21</v>
@@ -4933,10 +5373,18 @@
       <c r="N62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
+      <c r="O62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35"/>
@@ -4967,16 +5415,16 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J63" s="29" t="s">
         <v>20</v>
@@ -4993,10 +5441,18 @@
       <c r="N63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35"/>
@@ -5027,13 +5483,13 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I64" s="29" t="s">
         <v>20</v>
@@ -5053,10 +5509,18 @@
       <c r="N64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
+      <c r="O64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35"/>
@@ -5083,17 +5547,17 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I65" s="29" t="s">
         <v>20</v>
@@ -5108,15 +5572,23 @@
         <v>20</v>
       </c>
       <c r="M65" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N65" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35"/>
@@ -5147,16 +5619,16 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>20</v>
@@ -5165,18 +5637,26 @@
         <v>20</v>
       </c>
       <c r="L66" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M66" s="29" t="s">
         <v>21</v>
       </c>
       <c r="N66" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35"/>
@@ -5207,7 +5687,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5233,10 +5713,18 @@
       <c r="N67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35"/>
@@ -5267,13 +5755,13 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I68" s="29" t="s">
         <v>20</v>
@@ -5291,12 +5779,20 @@
         <v>21</v>
       </c>
       <c r="N68" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="35"/>
@@ -5327,7 +5823,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5336,7 +5832,7 @@
         <v>20</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J69" s="29" t="s">
         <v>20</v>
@@ -5353,10 +5849,18 @@
       <c r="N69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
+      <c r="O69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35"/>
@@ -5383,11 +5887,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5413,10 +5917,18 @@
       <c r="N70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
+      <c r="O70" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="35"/>
@@ -5447,13 +5959,13 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I71" s="29" t="s">
         <v>20</v>
@@ -5473,10 +5985,18 @@
       <c r="N71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
+      <c r="O71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35"/>
@@ -5507,13 +6027,13 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I72" s="29" t="s">
         <v>20</v>
@@ -5531,12 +6051,20 @@
         <v>21</v>
       </c>
       <c r="N72" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="35"/>
@@ -5563,11 +6091,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -5588,15 +6116,23 @@
         <v>20</v>
       </c>
       <c r="M73" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
+      <c r="O73" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="35"/>
@@ -5627,7 +6163,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -5653,10 +6189,18 @@
       <c r="N74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
+      <c r="O74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="35"/>
@@ -5687,7 +6231,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -5708,15 +6252,23 @@
         <v>20</v>
       </c>
       <c r="M75" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
+      <c r="O75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35"/>
@@ -5743,17 +6295,17 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I76" s="29" t="s">
         <v>20</v>
@@ -5773,10 +6325,18 @@
       <c r="N76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
+      <c r="O76" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="35"/>
@@ -5803,17 +6363,17 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I77" s="29" t="s">
         <v>20</v>
@@ -5825,7 +6385,7 @@
         <v>20</v>
       </c>
       <c r="L77" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M77" s="29" t="s">
         <v>21</v>
@@ -5833,10 +6393,18 @@
       <c r="N77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
+      <c r="O77" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="35"/>
@@ -5867,16 +6435,16 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J78" s="29" t="s">
         <v>20</v>
@@ -5893,10 +6461,18 @@
       <c r="N78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
+      <c r="O78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S78" s="35"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35"/>

--- a/attendance-files/SCM/SCM-R (EFGH) Attendance.xlsx
+++ b/attendance-files/SCM/SCM-R (EFGH) Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="165">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1646,7 +1646,9 @@
         <v>20</v>
       </c>
       <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
+      <c r="T7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
@@ -1675,7 +1677,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1714,7 +1716,9 @@
         <v>20</v>
       </c>
       <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
+      <c r="T8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
@@ -1743,7 +1747,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1782,7 +1786,9 @@
         <v>20</v>
       </c>
       <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
+      <c r="T9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
@@ -1811,7 +1817,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1850,7 +1856,9 @@
         <v>20</v>
       </c>
       <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
+      <c r="T10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
@@ -1879,7 +1887,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1918,7 +1926,9 @@
         <v>20</v>
       </c>
       <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
+      <c r="T11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
@@ -1947,7 +1957,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>24</v>
@@ -1986,7 +1996,9 @@
         <v>20</v>
       </c>
       <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
+      <c r="T12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U12" s="35"/>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
@@ -2015,7 +2027,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2054,7 +2066,9 @@
         <v>20</v>
       </c>
       <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
+      <c r="T13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
@@ -2083,7 +2097,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2122,7 +2136,9 @@
         <v>20</v>
       </c>
       <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
+      <c r="T14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
@@ -2151,7 +2167,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2190,7 +2206,9 @@
         <v>20</v>
       </c>
       <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
+      <c r="T15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
@@ -2219,7 +2237,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2258,7 +2276,9 @@
         <v>20</v>
       </c>
       <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
+      <c r="T16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
@@ -2287,7 +2307,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2326,7 +2346,9 @@
         <v>20</v>
       </c>
       <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
+      <c r="T17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
@@ -2355,7 +2377,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2394,7 +2416,9 @@
         <v>20</v>
       </c>
       <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
+      <c r="T18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
@@ -2423,7 +2447,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>24</v>
@@ -2462,7 +2486,9 @@
         <v>20</v>
       </c>
       <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
+      <c r="T19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
@@ -2491,7 +2517,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2530,7 +2556,9 @@
         <v>24</v>
       </c>
       <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
+      <c r="T20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
@@ -2559,7 +2587,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>24</v>
@@ -2598,7 +2626,9 @@
         <v>20</v>
       </c>
       <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
+      <c r="T21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
@@ -2627,7 +2657,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2666,7 +2696,9 @@
         <v>20</v>
       </c>
       <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
+      <c r="T22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
@@ -2695,7 +2727,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2734,7 +2766,9 @@
         <v>20</v>
       </c>
       <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
+      <c r="T23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
@@ -2763,7 +2797,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2802,7 +2836,9 @@
         <v>20</v>
       </c>
       <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
+      <c r="T24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
@@ -2827,7 +2863,7 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
@@ -2870,7 +2906,9 @@
         <v>20</v>
       </c>
       <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
+      <c r="T25" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U25" s="35"/>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
@@ -2899,7 +2937,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2938,7 +2976,9 @@
         <v>20</v>
       </c>
       <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
+      <c r="T26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U26" s="35"/>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
@@ -2967,7 +3007,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -3006,7 +3046,9 @@
         <v>20</v>
       </c>
       <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
+      <c r="T27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U27" s="35"/>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
@@ -3035,7 +3077,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -3074,7 +3116,9 @@
         <v>20</v>
       </c>
       <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
+      <c r="T28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
@@ -3103,7 +3147,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3142,7 +3186,9 @@
         <v>20</v>
       </c>
       <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
+      <c r="T29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U29" s="35"/>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
@@ -3167,7 +3213,7 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
@@ -3210,7 +3256,9 @@
         <v>20</v>
       </c>
       <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
+      <c r="T30" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U30" s="35"/>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
@@ -3235,7 +3283,7 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
@@ -3278,7 +3326,9 @@
         <v>20</v>
       </c>
       <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
+      <c r="T31" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U31" s="35"/>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
@@ -3303,7 +3353,7 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
@@ -3346,7 +3396,9 @@
         <v>20</v>
       </c>
       <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
+      <c r="T32" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U32" s="35"/>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
@@ -3375,7 +3427,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3414,7 +3466,9 @@
         <v>20</v>
       </c>
       <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
+      <c r="T33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U33" s="35"/>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
@@ -3439,7 +3493,7 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -3482,7 +3536,9 @@
         <v>20</v>
       </c>
       <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
+      <c r="T34" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
@@ -3511,7 +3567,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3550,7 +3606,9 @@
         <v>20</v>
       </c>
       <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
+      <c r="T35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
@@ -3579,7 +3637,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3618,7 +3676,9 @@
         <v>20</v>
       </c>
       <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
+      <c r="T36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
@@ -3647,7 +3707,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>24</v>
@@ -3686,7 +3746,9 @@
         <v>20</v>
       </c>
       <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
+      <c r="T37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
@@ -3715,7 +3777,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3754,7 +3816,9 @@
         <v>20</v>
       </c>
       <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
+      <c r="T38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
@@ -3779,7 +3843,7 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
@@ -3822,7 +3886,9 @@
         <v>20</v>
       </c>
       <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
+      <c r="T39" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
@@ -3851,7 +3917,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3890,7 +3956,9 @@
         <v>20</v>
       </c>
       <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
+      <c r="T40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
@@ -3915,7 +3983,7 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
@@ -3958,7 +4026,9 @@
         <v>20</v>
       </c>
       <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
+      <c r="T41" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
@@ -3987,7 +4057,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -4026,7 +4096,9 @@
         <v>20</v>
       </c>
       <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
+      <c r="T42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
@@ -4055,7 +4127,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -4094,7 +4166,9 @@
         <v>20</v>
       </c>
       <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
+      <c r="T43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
@@ -4123,7 +4197,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -4162,7 +4236,9 @@
         <v>20</v>
       </c>
       <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
+      <c r="T44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
@@ -4191,7 +4267,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -4230,7 +4306,9 @@
         <v>20</v>
       </c>
       <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
+      <c r="T45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
@@ -4255,7 +4333,7 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
@@ -4298,7 +4376,9 @@
         <v>20</v>
       </c>
       <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
+      <c r="T46" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
@@ -4323,7 +4403,7 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
@@ -4366,7 +4446,9 @@
         <v>20</v>
       </c>
       <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
+      <c r="T47" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U47" s="35"/>
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
@@ -4395,7 +4477,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4434,7 +4516,9 @@
         <v>20</v>
       </c>
       <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
+      <c r="T48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U48" s="35"/>
       <c r="V48" s="35"/>
       <c r="W48" s="35"/>
@@ -4459,7 +4543,7 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
@@ -4502,7 +4586,9 @@
         <v>20</v>
       </c>
       <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
+      <c r="T49" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
@@ -4527,7 +4613,7 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
@@ -4570,7 +4656,9 @@
         <v>20</v>
       </c>
       <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
+      <c r="T50" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U50" s="35"/>
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
@@ -4599,7 +4687,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4638,7 +4726,9 @@
         <v>20</v>
       </c>
       <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
+      <c r="T51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U51" s="35"/>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
@@ -4667,7 +4757,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4706,7 +4796,9 @@
         <v>20</v>
       </c>
       <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
+      <c r="T52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U52" s="35"/>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
@@ -4731,7 +4823,7 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
@@ -4774,7 +4866,9 @@
         <v>20</v>
       </c>
       <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
+      <c r="T53" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U53" s="35"/>
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
@@ -4803,7 +4897,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4842,7 +4936,9 @@
         <v>20</v>
       </c>
       <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
+      <c r="T54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U54" s="35"/>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
@@ -4867,7 +4963,7 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -4910,7 +5006,9 @@
         <v>20</v>
       </c>
       <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
+      <c r="T55" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U55" s="35"/>
       <c r="V55" s="35"/>
       <c r="W55" s="35"/>
@@ -4935,7 +5033,7 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
@@ -4978,7 +5076,9 @@
         <v>20</v>
       </c>
       <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
+      <c r="T56" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U56" s="35"/>
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
@@ -5003,7 +5103,7 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
@@ -5046,7 +5146,9 @@
         <v>20</v>
       </c>
       <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
+      <c r="T57" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U57" s="35"/>
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
@@ -5075,7 +5177,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -5114,7 +5216,9 @@
         <v>20</v>
       </c>
       <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
+      <c r="T58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U58" s="35"/>
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
@@ -5143,7 +5247,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -5182,7 +5286,9 @@
         <v>20</v>
       </c>
       <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
+      <c r="T59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U59" s="35"/>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
@@ -5211,7 +5317,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -5250,7 +5356,9 @@
         <v>20</v>
       </c>
       <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
+      <c r="T60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U60" s="35"/>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
@@ -5275,7 +5383,7 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
@@ -5318,7 +5426,9 @@
         <v>24</v>
       </c>
       <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
+      <c r="T61" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U61" s="35"/>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
@@ -5343,7 +5453,7 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
@@ -5386,7 +5496,9 @@
         <v>20</v>
       </c>
       <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
+      <c r="T62" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U62" s="35"/>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
@@ -5415,7 +5527,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>24</v>
@@ -5454,7 +5566,9 @@
         <v>20</v>
       </c>
       <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
+      <c r="T63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U63" s="35"/>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
@@ -5483,7 +5597,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>24</v>
@@ -5522,7 +5636,9 @@
         <v>20</v>
       </c>
       <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
+      <c r="T64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U64" s="35"/>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
@@ -5551,7 +5667,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>24</v>
@@ -5590,7 +5706,9 @@
         <v>20</v>
       </c>
       <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
+      <c r="T65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U65" s="35"/>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
@@ -5619,7 +5737,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>24</v>
@@ -5658,7 +5776,9 @@
         <v>20</v>
       </c>
       <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
+      <c r="T66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U66" s="35"/>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
@@ -5683,7 +5803,7 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -5726,7 +5846,9 @@
         <v>20</v>
       </c>
       <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
+      <c r="T67" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U67" s="35"/>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
@@ -5755,7 +5877,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>24</v>
@@ -5794,7 +5916,9 @@
         <v>20</v>
       </c>
       <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
+      <c r="T68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U68" s="35"/>
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
@@ -5823,7 +5947,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5862,7 +5986,9 @@
         <v>20</v>
       </c>
       <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
+      <c r="T69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U69" s="35"/>
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
@@ -5887,7 +6013,7 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
@@ -5930,7 +6056,9 @@
         <v>20</v>
       </c>
       <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
+      <c r="T70" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U70" s="35"/>
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
@@ -5955,7 +6083,7 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
@@ -5998,7 +6126,9 @@
         <v>20</v>
       </c>
       <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
+      <c r="T71" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U71" s="35"/>
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
@@ -6027,7 +6157,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>24</v>
@@ -6066,7 +6196,9 @@
         <v>20</v>
       </c>
       <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
+      <c r="T72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U72" s="35"/>
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
@@ -6091,7 +6223,7 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
@@ -6134,7 +6266,9 @@
         <v>24</v>
       </c>
       <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
+      <c r="T73" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U73" s="35"/>
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
@@ -6159,7 +6293,7 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
@@ -6202,7 +6336,9 @@
         <v>20</v>
       </c>
       <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
+      <c r="T74" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U74" s="35"/>
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
@@ -6231,7 +6367,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -6270,7 +6406,9 @@
         <v>20</v>
       </c>
       <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
+      <c r="T75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U75" s="35"/>
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
@@ -6295,7 +6433,7 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
@@ -6338,7 +6476,9 @@
         <v>24</v>
       </c>
       <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
+      <c r="T76" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="U76" s="35"/>
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
@@ -6367,7 +6507,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>24</v>
@@ -6406,7 +6546,9 @@
         <v>20</v>
       </c>
       <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
+      <c r="T77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U77" s="35"/>
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
@@ -6435,7 +6577,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>24</v>
@@ -6474,7 +6616,9 @@
         <v>20</v>
       </c>
       <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
+      <c r="T78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U78" s="35"/>
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>

--- a/attendance-files/SCM/SCM-R (EFGH) Attendance.xlsx
+++ b/attendance-files/SCM/SCM-R (EFGH) Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="165">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1645,11 +1645,15 @@
       <c r="R7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
+      <c r="S7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="30"/>
+      <c r="U7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
@@ -1677,7 +1681,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1715,11 +1719,15 @@
       <c r="R8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="35"/>
+      <c r="S8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="35"/>
+      <c r="U8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
@@ -1747,7 +1755,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1785,11 +1793,15 @@
       <c r="R9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="35"/>
+      <c r="S9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="35"/>
+      <c r="U9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
@@ -1813,11 +1825,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1855,11 +1867,15 @@
       <c r="R10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35"/>
+      <c r="S10" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="35"/>
+      <c r="U10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
@@ -1883,11 +1899,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1925,11 +1941,15 @@
       <c r="R11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="35"/>
+      <c r="S11" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="35"/>
+      <c r="U11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
@@ -1957,7 +1977,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>24</v>
@@ -1995,11 +2015,15 @@
       <c r="R12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="35"/>
+      <c r="S12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="35"/>
+      <c r="U12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
@@ -2023,11 +2047,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2065,11 +2089,15 @@
       <c r="R13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="35"/>
+      <c r="S13" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="35"/>
+      <c r="U13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
@@ -2097,7 +2125,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2135,11 +2163,15 @@
       <c r="R14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="35"/>
+      <c r="S14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="35"/>
+      <c r="U14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
@@ -2163,11 +2195,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2205,11 +2237,15 @@
       <c r="R15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="35"/>
+      <c r="S15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="35"/>
+      <c r="U15" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -2237,7 +2273,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2275,11 +2311,15 @@
       <c r="R16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="35"/>
+      <c r="S16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U16" s="35"/>
+      <c r="U16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
@@ -2307,7 +2347,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2345,11 +2385,15 @@
       <c r="R17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="35"/>
+      <c r="S17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="35"/>
+      <c r="U17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
@@ -2373,11 +2417,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2415,11 +2459,15 @@
       <c r="R18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="35"/>
+      <c r="S18" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="35"/>
+      <c r="U18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
@@ -2443,11 +2491,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>24</v>
@@ -2485,11 +2533,15 @@
       <c r="R19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="35"/>
+      <c r="S19" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="35"/>
+      <c r="U19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
@@ -2513,11 +2565,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2555,11 +2607,15 @@
       <c r="R20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="S20" s="35"/>
+      <c r="S20" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="35"/>
+      <c r="U20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
@@ -2583,11 +2639,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>24</v>
@@ -2625,11 +2681,15 @@
       <c r="R21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="35"/>
+      <c r="S21" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="35"/>
+      <c r="U21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
@@ -2653,11 +2713,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2695,11 +2755,15 @@
       <c r="R22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="35"/>
+      <c r="S22" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="35"/>
+      <c r="U22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
@@ -2727,7 +2791,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2765,11 +2829,15 @@
       <c r="R23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="35"/>
+      <c r="S23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U23" s="35"/>
+      <c r="U23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
@@ -2793,11 +2861,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2835,11 +2903,15 @@
       <c r="R24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="35"/>
+      <c r="S24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U24" s="35"/>
+      <c r="U24" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
@@ -2863,11 +2935,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2905,11 +2977,15 @@
       <c r="R25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="35"/>
+      <c r="S25" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U25" s="35"/>
+      <c r="U25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
@@ -2937,7 +3013,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2975,11 +3051,15 @@
       <c r="R26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="35"/>
+      <c r="S26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U26" s="35"/>
+      <c r="U26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
@@ -3007,7 +3087,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -3045,11 +3125,15 @@
       <c r="R27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="35"/>
+      <c r="S27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U27" s="35"/>
+      <c r="U27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
@@ -3073,11 +3157,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -3115,11 +3199,15 @@
       <c r="R28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="35"/>
+      <c r="S28" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U28" s="35"/>
+      <c r="U28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
@@ -3143,11 +3231,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3185,11 +3273,15 @@
       <c r="R29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="35"/>
+      <c r="S29" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="35"/>
+      <c r="U29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -3213,11 +3305,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3255,11 +3347,15 @@
       <c r="R30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="35"/>
+      <c r="S30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T30" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U30" s="35"/>
+      <c r="U30" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
@@ -3287,7 +3383,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3325,11 +3421,15 @@
       <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="35"/>
+      <c r="S31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T31" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U31" s="35"/>
+      <c r="U31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
@@ -3357,7 +3457,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>24</v>
@@ -3395,11 +3495,15 @@
       <c r="R32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="35"/>
+      <c r="S32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T32" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="35"/>
+      <c r="U32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
@@ -3423,11 +3527,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3465,11 +3569,15 @@
       <c r="R33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="35"/>
+      <c r="S33" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U33" s="35"/>
+      <c r="U33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
@@ -3497,7 +3605,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3535,11 +3643,15 @@
       <c r="R34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="35"/>
+      <c r="S34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T34" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U34" s="35"/>
+      <c r="U34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
@@ -3563,11 +3675,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3605,11 +3717,15 @@
       <c r="R35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="35"/>
+      <c r="S35" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="35"/>
+      <c r="U35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
@@ -3637,7 +3753,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3675,11 +3791,15 @@
       <c r="R36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="35"/>
+      <c r="S36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U36" s="35"/>
+      <c r="U36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
@@ -3703,11 +3823,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>24</v>
@@ -3745,11 +3865,15 @@
       <c r="R37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="35"/>
+      <c r="S37" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U37" s="35"/>
+      <c r="U37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
@@ -3777,7 +3901,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3815,11 +3939,15 @@
       <c r="R38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="35"/>
+      <c r="S38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U38" s="35"/>
+      <c r="U38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
@@ -3843,11 +3971,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>24</v>
@@ -3885,11 +4013,15 @@
       <c r="R39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="35"/>
+      <c r="S39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T39" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U39" s="35"/>
+      <c r="U39" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
@@ -3913,11 +4045,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3955,11 +4087,15 @@
       <c r="R40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="35"/>
+      <c r="S40" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U40" s="35"/>
+      <c r="U40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
@@ -3983,11 +4119,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -4025,11 +4161,15 @@
       <c r="R41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S41" s="35"/>
+      <c r="S41" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T41" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U41" s="35"/>
+      <c r="U41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
@@ -4057,7 +4197,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -4095,11 +4235,15 @@
       <c r="R42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="35"/>
+      <c r="S42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U42" s="35"/>
+      <c r="U42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
@@ -4127,7 +4271,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -4165,11 +4309,15 @@
       <c r="R43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="35"/>
+      <c r="S43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U43" s="35"/>
+      <c r="U43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
       <c r="X43" s="35"/>
@@ -4197,7 +4345,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -4235,11 +4383,15 @@
       <c r="R44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="35"/>
+      <c r="S44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U44" s="35"/>
+      <c r="U44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
       <c r="X44" s="35"/>
@@ -4263,11 +4415,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -4305,11 +4457,15 @@
       <c r="R45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="35"/>
+      <c r="S45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U45" s="35"/>
+      <c r="U45" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
       <c r="X45" s="35"/>
@@ -4337,7 +4493,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4375,11 +4531,15 @@
       <c r="R46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="35"/>
+      <c r="S46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T46" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U46" s="35"/>
+      <c r="U46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
       <c r="X46" s="35"/>
@@ -4403,11 +4563,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4445,11 +4605,15 @@
       <c r="R47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="35"/>
+      <c r="S47" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T47" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U47" s="35"/>
+      <c r="U47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
       <c r="X47" s="35"/>
@@ -4473,11 +4637,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4515,11 +4679,15 @@
       <c r="R48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="35"/>
+      <c r="S48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U48" s="35"/>
+      <c r="U48" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="V48" s="35"/>
       <c r="W48" s="35"/>
       <c r="X48" s="35"/>
@@ -4547,7 +4715,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4585,11 +4753,15 @@
       <c r="R49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="35"/>
+      <c r="S49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T49" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U49" s="35"/>
+      <c r="U49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
@@ -4613,11 +4785,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4655,11 +4827,15 @@
       <c r="R50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="35"/>
+      <c r="S50" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T50" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U50" s="35"/>
+      <c r="U50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
       <c r="X50" s="35"/>
@@ -4687,7 +4863,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4725,11 +4901,15 @@
       <c r="R51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="35"/>
+      <c r="S51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U51" s="35"/>
+      <c r="U51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
       <c r="X51" s="35"/>
@@ -4757,7 +4937,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4795,11 +4975,15 @@
       <c r="R52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S52" s="35"/>
+      <c r="S52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U52" s="35"/>
+      <c r="U52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
       <c r="X52" s="35"/>
@@ -4823,11 +5007,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4865,11 +5049,15 @@
       <c r="R53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S53" s="35"/>
+      <c r="S53" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T53" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U53" s="35"/>
+      <c r="U53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
       <c r="X53" s="35"/>
@@ -4893,11 +5081,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4935,11 +5123,15 @@
       <c r="R54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="35"/>
+      <c r="S54" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U54" s="35"/>
+      <c r="U54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35"/>
@@ -4963,7 +5155,7 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -5005,11 +5197,15 @@
       <c r="R55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="35"/>
+      <c r="S55" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T55" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U55" s="35"/>
+      <c r="U55" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="V55" s="35"/>
       <c r="W55" s="35"/>
       <c r="X55" s="35"/>
@@ -5037,7 +5233,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -5075,11 +5271,15 @@
       <c r="R56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="35"/>
+      <c r="S56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T56" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U56" s="35"/>
+      <c r="U56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
       <c r="X56" s="35"/>
@@ -5103,7 +5303,7 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
@@ -5145,11 +5345,15 @@
       <c r="R57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="35"/>
+      <c r="S57" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T57" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U57" s="35"/>
+      <c r="U57" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
       <c r="X57" s="35"/>
@@ -5177,7 +5381,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -5215,11 +5419,15 @@
       <c r="R58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="35"/>
+      <c r="S58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U58" s="35"/>
+      <c r="U58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
@@ -5247,7 +5455,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -5285,11 +5493,15 @@
       <c r="R59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="35"/>
+      <c r="S59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U59" s="35"/>
+      <c r="U59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
       <c r="X59" s="35"/>
@@ -5317,7 +5529,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -5355,11 +5567,15 @@
       <c r="R60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="35"/>
+      <c r="S60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U60" s="35"/>
+      <c r="U60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
       <c r="X60" s="35"/>
@@ -5383,11 +5599,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>24</v>
@@ -5425,11 +5641,15 @@
       <c r="R61" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="S61" s="35"/>
+      <c r="S61" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T61" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U61" s="35"/>
+      <c r="U61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
       <c r="X61" s="35"/>
@@ -5453,11 +5673,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5495,11 +5715,15 @@
       <c r="R62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="35"/>
+      <c r="S62" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T62" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U62" s="35"/>
+      <c r="U62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
@@ -5527,7 +5751,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>24</v>
@@ -5565,11 +5789,15 @@
       <c r="R63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="35"/>
+      <c r="S63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U63" s="35"/>
+      <c r="U63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
@@ -5597,7 +5825,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>24</v>
@@ -5635,11 +5863,15 @@
       <c r="R64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="35"/>
+      <c r="S64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U64" s="35"/>
+      <c r="U64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
       <c r="X64" s="35"/>
@@ -5667,7 +5899,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>24</v>
@@ -5705,11 +5937,15 @@
       <c r="R65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="35"/>
+      <c r="S65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U65" s="35"/>
+      <c r="U65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
       <c r="X65" s="35"/>
@@ -5737,7 +5973,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>24</v>
@@ -5775,11 +6011,15 @@
       <c r="R66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="35"/>
+      <c r="S66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U66" s="35"/>
+      <c r="U66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
       <c r="X66" s="35"/>
@@ -5803,11 +6043,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5845,11 +6085,15 @@
       <c r="R67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S67" s="35"/>
+      <c r="S67" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T67" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U67" s="35"/>
+      <c r="U67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
@@ -5877,7 +6121,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>24</v>
@@ -5915,11 +6159,15 @@
       <c r="R68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="35"/>
+      <c r="S68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U68" s="35"/>
+      <c r="U68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
@@ -5947,7 +6195,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5985,11 +6233,15 @@
       <c r="R69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="35"/>
+      <c r="S69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U69" s="35"/>
+      <c r="U69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
@@ -6013,11 +6265,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -6055,11 +6307,15 @@
       <c r="R70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="35"/>
+      <c r="S70" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T70" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U70" s="35"/>
+      <c r="U70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
@@ -6087,7 +6343,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>24</v>
@@ -6125,11 +6381,15 @@
       <c r="R71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="35"/>
+      <c r="S71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T71" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U71" s="35"/>
+      <c r="U71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
@@ -6157,7 +6417,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>24</v>
@@ -6195,11 +6455,15 @@
       <c r="R72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S72" s="35"/>
+      <c r="S72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U72" s="35"/>
+      <c r="U72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
@@ -6223,11 +6487,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -6265,11 +6529,15 @@
       <c r="R73" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="S73" s="35"/>
+      <c r="S73" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T73" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U73" s="35"/>
+      <c r="U73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
@@ -6293,11 +6561,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -6335,11 +6603,15 @@
       <c r="R74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="35"/>
+      <c r="S74" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T74" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U74" s="35"/>
+      <c r="U74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
@@ -6363,11 +6635,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -6405,11 +6677,15 @@
       <c r="R75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="35"/>
+      <c r="S75" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U75" s="35"/>
+      <c r="U75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
       <c r="X75" s="35"/>
@@ -6433,11 +6709,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>24</v>
@@ -6475,11 +6751,15 @@
       <c r="R76" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="S76" s="35"/>
+      <c r="S76" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T76" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U76" s="35"/>
+      <c r="U76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
       <c r="X76" s="35"/>
@@ -6503,11 +6783,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>24</v>
@@ -6545,11 +6825,15 @@
       <c r="R77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S77" s="35"/>
+      <c r="S77" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="T77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U77" s="35"/>
+      <c r="U77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
       <c r="X77" s="35"/>
@@ -6577,7 +6861,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>24</v>
@@ -6615,11 +6899,15 @@
       <c r="R78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S78" s="35"/>
+      <c r="S78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U78" s="35"/>
+      <c r="U78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
       <c r="X78" s="35"/>

--- a/attendance-files/SCM/SCM-R (EFGH) Attendance.xlsx
+++ b/attendance-files/SCM/SCM-R (EFGH) Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="165">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -520,7 +520,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ d\ mmmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -571,11 +571,6 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -893,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -974,9 +969,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1615,7 +1607,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1662,26 +1654,22 @@
       <c r="U7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <f t="shared" ref="A8:A95" si="3">IF(B8&gt;0,A7+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -1691,9 +1679,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F8" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F8" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1740,26 +1728,22 @@
       <c r="U8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -1769,9 +1753,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F9" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1818,26 +1802,22 @@
       <c r="U9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -1847,9 +1827,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F10" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F10" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1896,26 +1876,22 @@
       <c r="U10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -1925,9 +1901,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F11" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F11" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1974,26 +1950,22 @@
       <c r="U11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2003,9 +1975,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F12" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F12" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>24</v>
@@ -2052,26 +2024,22 @@
       <c r="U12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -2081,9 +2049,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F13" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F13" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2130,26 +2098,22 @@
       <c r="U13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -2159,9 +2123,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F14" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F14" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2208,26 +2172,22 @@
       <c r="U14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -2237,9 +2197,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F15" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F15" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2286,26 +2246,22 @@
       <c r="U15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -2315,9 +2271,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F16" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F16" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2364,26 +2320,22 @@
       <c r="U16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -2393,9 +2345,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F17" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F17" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2442,26 +2394,22 @@
       <c r="U17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -2471,9 +2419,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F18" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F18" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2520,26 +2468,22 @@
       <c r="U18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -2549,9 +2493,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F19" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="F19" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>24</v>
@@ -2598,26 +2542,22 @@
       <c r="U19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -2625,11 +2565,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F20" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2676,26 +2616,22 @@
       <c r="U20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V20" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -2705,9 +2641,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F21" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="F21" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>24</v>
@@ -2754,26 +2690,22 @@
       <c r="U21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V21" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -2783,9 +2715,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F22" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F22" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2832,26 +2764,22 @@
       <c r="U22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W22" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -2861,9 +2789,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F23" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2910,26 +2838,22 @@
       <c r="U23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -2939,9 +2863,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F24" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F24" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2988,26 +2912,22 @@
       <c r="U24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -3017,9 +2937,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F25" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F25" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -3066,26 +2986,22 @@
       <c r="U25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W25" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="32">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="31">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -3095,9 +3011,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F26" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F26" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -3144,26 +3060,22 @@
       <c r="U26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V26" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W26" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="32">
+      <c r="A27" s="31">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -3173,9 +3085,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F27" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F27" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -3222,26 +3134,22 @@
       <c r="U27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -3251,9 +3159,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F28" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F28" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -3300,26 +3208,22 @@
       <c r="U28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W28" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -3329,9 +3233,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F29" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F29" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3378,26 +3282,22 @@
       <c r="U29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="32">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="31">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -3407,9 +3307,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F30" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F30" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3456,26 +3356,22 @@
       <c r="U30" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -3485,9 +3381,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F31" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F31" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3534,26 +3430,22 @@
       <c r="U31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W31" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -3563,9 +3455,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F32" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="F32" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>24</v>
@@ -3612,26 +3504,22 @@
       <c r="U32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V32" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W32" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="25" t="s">
@@ -3641,9 +3529,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F33" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F33" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3690,26 +3578,22 @@
       <c r="U33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V33" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W33" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="31">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -3719,9 +3603,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F34" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F34" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3768,26 +3652,22 @@
       <c r="U34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V34" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W34" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="32">
+      <c r="A35" s="31">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="25" t="s">
@@ -3797,9 +3677,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F35" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F35" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3846,26 +3726,22 @@
       <c r="U35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="32">
+      <c r="A36" s="31">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -3875,9 +3751,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F36" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3924,26 +3800,22 @@
       <c r="U36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V36" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W36" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="32">
+      <c r="A37" s="31">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="25" t="s">
@@ -3953,9 +3825,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F37" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="F37" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>24</v>
@@ -4002,26 +3874,22 @@
       <c r="U37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V37" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W37" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="32">
+      <c r="A38" s="31">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -4029,11 +3897,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F38" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -4080,26 +3948,22 @@
       <c r="U38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V38" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W38" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="32">
+      <c r="A39" s="31">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="25" t="s">
@@ -4109,9 +3973,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F39" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="F39" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>24</v>
@@ -4158,26 +4022,22 @@
       <c r="U39" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V39" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W39" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="32">
+      <c r="A40" s="31">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>88</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -4187,9 +4047,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F40" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F40" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -4236,26 +4096,22 @@
       <c r="U40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V40" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W40" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="32">
+      <c r="A41" s="31">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -4265,9 +4121,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F41" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F41" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -4314,26 +4170,22 @@
       <c r="U41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V41" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W41" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="32">
+      <c r="A42" s="31">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -4343,9 +4195,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F42" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F42" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -4392,26 +4244,22 @@
       <c r="U42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V42" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W42" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="25" t="s">
@@ -4421,9 +4269,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F43" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F43" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -4470,26 +4318,22 @@
       <c r="U43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V43" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W43" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="33" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -4499,9 +4343,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F44" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F44" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -4548,26 +4392,22 @@
       <c r="U44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V44" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W44" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="33" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="25" t="s">
@@ -4575,11 +4415,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F45" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="F45" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -4626,26 +4466,22 @@
       <c r="U45" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V45" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="W45" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="33" t="s">
         <v>100</v>
       </c>
       <c r="D46" s="25" t="s">
@@ -4655,9 +4491,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F46" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F46" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4704,26 +4540,22 @@
       <c r="U46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V46" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W46" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="33" t="s">
         <v>102</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -4733,9 +4565,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F47" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F47" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4782,26 +4614,22 @@
       <c r="U47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W47" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="33" t="s">
         <v>104</v>
       </c>
       <c r="D48" s="25" t="s">
@@ -4809,11 +4637,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F48" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="F48" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4860,26 +4688,22 @@
       <c r="U48" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V48" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="W48" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="32">
+      <c r="A49" s="31">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="25" t="s">
@@ -4889,9 +4713,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F49" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F49" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4938,26 +4762,22 @@
       <c r="U49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V49" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W49" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="32">
+      <c r="A50" s="31">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="25" t="s">
@@ -4965,9 +4785,9 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F50" s="35">
+        <v>7</v>
+      </c>
+      <c r="F50" s="34">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -5016,26 +4836,22 @@
       <c r="U50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V50" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="W50" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="32">
+      <c r="A51" s="31">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="33" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="25" t="s">
@@ -5045,9 +4861,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F51" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F51" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -5094,26 +4910,22 @@
       <c r="U51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V51" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W51" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="32">
+      <c r="A52" s="31">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="33" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="25" t="s">
@@ -5121,11 +4933,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F52" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -5172,26 +4984,22 @@
       <c r="U52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V52" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W52" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="36"/>
-      <c r="AA52" s="36"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="32">
+      <c r="A53" s="31">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="33" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="25" t="s">
@@ -5199,11 +5007,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F53" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="F53" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -5250,26 +5058,22 @@
       <c r="U53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V53" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W53" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="36"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="33" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -5279,9 +5083,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F54" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F54" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -5328,26 +5132,22 @@
       <c r="U54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V54" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W54" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="32">
+      <c r="A55" s="31">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="33" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="25" t="s">
@@ -5355,11 +5155,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F55" s="35">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="F55" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -5406,26 +5206,22 @@
       <c r="U55" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V55" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W55" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="32">
+      <c r="A56" s="31">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="33" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="25" t="s">
@@ -5435,9 +5231,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F56" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F56" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -5484,26 +5280,22 @@
       <c r="U56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V56" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W56" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="36"/>
-      <c r="AA56" s="36"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="32">
+      <c r="A57" s="31">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="33" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -5513,9 +5305,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F57" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="F57" s="34">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -5562,26 +5354,22 @@
       <c r="U57" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V57" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W57" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="32">
+      <c r="A58" s="31">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="33" t="s">
         <v>124</v>
       </c>
       <c r="D58" s="25" t="s">
@@ -5591,9 +5379,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F58" s="35">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="F58" s="34">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -5640,26 +5428,22 @@
       <c r="U58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V58" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W58" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="32">
+      <c r="A59" s="31">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="33" t="s">
         <v>126</v>
       </c>
       <c r="D59" s="25" t="s">
@@ -5669,9 +5453,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F59" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F59" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -5718,26 +5502,22 @@
       <c r="U59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V59" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W59" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="36"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="32">
+      <c r="A60" s="31">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="33" t="s">
         <v>128</v>
       </c>
       <c r="D60" s="25" t="s">
@@ -5747,9 +5527,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F60" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F60" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -5796,26 +5576,22 @@
       <c r="U60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V60" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W60" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="36"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="32">
+      <c r="A61" s="31">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="33" t="s">
         <v>130</v>
       </c>
       <c r="D61" s="25" t="s">
@@ -5825,9 +5601,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F61" s="35">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="F61" s="34">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>24</v>
@@ -5874,26 +5650,22 @@
       <c r="U61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W61" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="32">
+      <c r="A62" s="31">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="33" t="s">
         <v>132</v>
       </c>
       <c r="D62" s="25" t="s">
@@ -5903,9 +5675,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F62" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F62" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5952,26 +5724,22 @@
       <c r="U62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V62" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W62" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="32">
+      <c r="A63" s="31">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="33" t="s">
         <v>134</v>
       </c>
       <c r="D63" s="25" t="s">
@@ -5979,11 +5747,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F63" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="F63" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>24</v>
@@ -6030,26 +5798,22 @@
       <c r="U63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V63" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W63" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="36"/>
-      <c r="AA63" s="36"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="32">
+      <c r="A64" s="31">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="33" t="s">
         <v>136</v>
       </c>
       <c r="D64" s="25" t="s">
@@ -6059,9 +5823,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F64" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F64" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>24</v>
@@ -6108,26 +5872,22 @@
       <c r="U64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V64" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W64" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
-      <c r="Z64" s="36"/>
-      <c r="AA64" s="36"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="32">
+      <c r="A65" s="31">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="33" t="s">
         <v>138</v>
       </c>
       <c r="D65" s="25" t="s">
@@ -6137,9 +5897,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F65" s="35">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="F65" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>24</v>
@@ -6186,26 +5946,22 @@
       <c r="U65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W65" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
-      <c r="Z65" s="36"/>
-      <c r="AA65" s="36"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="32">
+      <c r="A66" s="31">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D66" s="25" t="s">
@@ -6215,9 +5971,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F66" s="35">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="F66" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>24</v>
@@ -6264,26 +6020,22 @@
       <c r="U66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V66" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W66" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="32">
+      <c r="A67" s="31">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="33" t="s">
         <v>142</v>
       </c>
       <c r="D67" s="25" t="s">
@@ -6291,11 +6043,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F67" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="F67" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -6342,26 +6094,22 @@
       <c r="U67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V67" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W67" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
-      <c r="Z67" s="36"/>
-      <c r="AA67" s="36"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="32">
+      <c r="A68" s="31">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="33" t="s">
         <v>144</v>
       </c>
       <c r="D68" s="25" t="s">
@@ -6371,9 +6119,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F68" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F68" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>24</v>
@@ -6420,26 +6168,22 @@
       <c r="U68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V68" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W68" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
-      <c r="Z68" s="36"/>
-      <c r="AA68" s="36"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="32">
+      <c r="A69" s="31">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="33" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="25" t="s">
@@ -6449,9 +6193,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F69" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="F69" s="34">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -6498,26 +6242,22 @@
       <c r="U69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V69" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W69" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="36"/>
-      <c r="AA69" s="36"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="32">
+      <c r="A70" s="31">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="33" t="s">
         <v>148</v>
       </c>
       <c r="D70" s="25" t="s">
@@ -6527,9 +6267,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F70" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F70" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -6576,26 +6316,22 @@
       <c r="U70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V70" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W70" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="36"/>
-      <c r="AA70" s="36"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="32">
+      <c r="A71" s="31">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="33" t="s">
         <v>150</v>
       </c>
       <c r="D71" s="25" t="s">
@@ -6605,9 +6341,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F71" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F71" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>24</v>
@@ -6654,26 +6390,22 @@
       <c r="U71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V71" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W71" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
-      <c r="Z71" s="36"/>
-      <c r="AA71" s="36"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="32">
+      <c r="A72" s="31">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="33" t="s">
         <v>152</v>
       </c>
       <c r="D72" s="25" t="s">
@@ -6683,9 +6415,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F72" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F72" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>24</v>
@@ -6732,26 +6464,22 @@
       <c r="U72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V72" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W72" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
-      <c r="Z72" s="36"/>
-      <c r="AA72" s="36"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35"/>
+      <c r="AA72" s="35"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="32">
+      <c r="A73" s="31">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="33" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="25" t="s">
@@ -6761,9 +6489,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F73" s="35">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="F73" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -6810,26 +6538,22 @@
       <c r="U73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V73" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W73" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="36"/>
-      <c r="Z73" s="36"/>
-      <c r="AA73" s="36"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="32">
+      <c r="A74" s="31">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="33" t="s">
         <v>156</v>
       </c>
       <c r="D74" s="25" t="s">
@@ -6839,9 +6563,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F74" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="F74" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -6888,26 +6612,22 @@
       <c r="U74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V74" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W74" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="36"/>
-      <c r="Z74" s="36"/>
-      <c r="AA74" s="36"/>
+      <c r="V74" s="35"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
+      <c r="AA74" s="35"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="32">
+      <c r="A75" s="31">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="33" t="s">
         <v>158</v>
       </c>
       <c r="D75" s="25" t="s">
@@ -6915,11 +6635,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F75" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="F75" s="34">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -6966,26 +6686,22 @@
       <c r="U75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V75" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W75" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="36"/>
-      <c r="Z75" s="36"/>
-      <c r="AA75" s="36"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="32">
+      <c r="A76" s="31">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="33" t="s">
         <v>160</v>
       </c>
       <c r="D76" s="25" t="s">
@@ -6995,9 +6711,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F76" s="35">
-        <f t="shared" si="2"/>
-        <v>11</v>
+      <c r="F76" s="34">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>24</v>
@@ -7044,26 +6760,22 @@
       <c r="U76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V76" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W76" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="36"/>
-      <c r="Z76" s="36"/>
-      <c r="AA76" s="36"/>
+      <c r="V76" s="35"/>
+      <c r="W76" s="35"/>
+      <c r="X76" s="35"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="35"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="32">
+      <c r="A77" s="31">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="33" t="s">
         <v>162</v>
       </c>
       <c r="D77" s="25" t="s">
@@ -7073,9 +6785,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F77" s="35">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="F77" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>24</v>
@@ -7122,26 +6834,22 @@
       <c r="U77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V77" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W77" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
-      <c r="Z77" s="36"/>
-      <c r="AA77" s="36"/>
+      <c r="V77" s="35"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35"/>
+      <c r="AA77" s="35"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="32">
+      <c r="A78" s="31">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="33" t="s">
         <v>164</v>
       </c>
       <c r="D78" s="25" t="s">
@@ -7151,9 +6859,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F78" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="F78" s="34">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>24</v>
@@ -7200,662 +6908,658 @@
       <c r="U78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V78" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W78" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="36"/>
-      <c r="Z78" s="36"/>
-      <c r="AA78" s="36"/>
+      <c r="V78" s="35"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="35"/>
+      <c r="AA78" s="35"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="34"/>
+      <c r="A79" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="33"/>
       <c r="D79" s="25"/>
       <c r="E79" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F79" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G79" s="37"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="36"/>
-      <c r="Z79" s="36"/>
-      <c r="AA79" s="36"/>
+      <c r="F79" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G79" s="36"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
+      <c r="V79" s="35"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="35"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="34"/>
+      <c r="A80" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="33"/>
       <c r="D80" s="25"/>
       <c r="E80" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F80" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="36"/>
-      <c r="Z80" s="36"/>
-      <c r="AA80" s="36"/>
+      <c r="F80" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="34"/>
+      <c r="A81" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="25"/>
       <c r="E81" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F81" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="36"/>
-      <c r="Z81" s="36"/>
-      <c r="AA81" s="36"/>
+      <c r="F81" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G81" s="36"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
+      <c r="A82" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B82" s="32"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="25"/>
       <c r="E82" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F82" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G82" s="37"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="36"/>
-      <c r="Z82" s="36"/>
-      <c r="AA82" s="36"/>
+      <c r="F82" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G82" s="36"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="34"/>
+      <c r="A83" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B83" s="32"/>
+      <c r="C83" s="33"/>
       <c r="D83" s="25"/>
       <c r="E83" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F83" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="36"/>
-      <c r="Z83" s="36"/>
-      <c r="AA83" s="36"/>
+      <c r="F83" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G83" s="36"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="34"/>
+      <c r="A84" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="33"/>
       <c r="D84" s="25"/>
       <c r="E84" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F84" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="36"/>
-      <c r="AA84" s="36"/>
+      <c r="F84" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G84" s="36"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
+      <c r="A85" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F85" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G85" s="37"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="36"/>
-      <c r="Z85" s="36"/>
-      <c r="AA85" s="36"/>
+      <c r="F85" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G85" s="36"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
+      <c r="A86" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="26"/>
       <c r="E86" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F86" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
-      <c r="V86" s="36"/>
-      <c r="W86" s="36"/>
-      <c r="X86" s="36"/>
-      <c r="Y86" s="36"/>
-      <c r="Z86" s="36"/>
-      <c r="AA86" s="36"/>
+      <c r="F86" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G86" s="36"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
+      <c r="A87" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="26"/>
       <c r="E87" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F87" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G87" s="37"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
-      <c r="Z87" s="36"/>
-      <c r="AA87" s="36"/>
+      <c r="F87" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G87" s="36"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
+      <c r="A88" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="26"/>
       <c r="E88" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F88" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="36"/>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="36"/>
-      <c r="Z88" s="36"/>
-      <c r="AA88" s="36"/>
+      <c r="F88" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="35"/>
+      <c r="AA88" s="35"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
+      <c r="A89" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="26"/>
       <c r="E89" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F89" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G89" s="37"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="36"/>
-      <c r="Z89" s="36"/>
-      <c r="AA89" s="36"/>
+      <c r="F89" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35"/>
+      <c r="AA89" s="35"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
+      <c r="A90" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="26"/>
       <c r="E90" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F90" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G90" s="37"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="36"/>
-      <c r="Z90" s="36"/>
-      <c r="AA90" s="36"/>
+      <c r="F90" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G90" s="36"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="35"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="35"/>
+      <c r="Y90" s="35"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="35"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
+      <c r="A91" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="26"/>
       <c r="E91" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F91" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G91" s="37"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
-      <c r="Y91" s="36"/>
-      <c r="Z91" s="36"/>
-      <c r="AA91" s="36"/>
+      <c r="F91" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G91" s="36"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="35"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
+      <c r="A92" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F92" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G92" s="37"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
-      <c r="Z92" s="36"/>
-      <c r="AA92" s="36"/>
+      <c r="F92" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G92" s="36"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="35"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
+      <c r="A93" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="26"/>
       <c r="E93" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F93" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G93" s="37"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="36"/>
-      <c r="V93" s="36"/>
-      <c r="W93" s="36"/>
-      <c r="X93" s="36"/>
-      <c r="Y93" s="36"/>
-      <c r="Z93" s="36"/>
-      <c r="AA93" s="36"/>
+      <c r="F93" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G93" s="36"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="35"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
+      <c r="A94" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F94" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G94" s="37"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="36"/>
-      <c r="X94" s="36"/>
-      <c r="Y94" s="36"/>
-      <c r="Z94" s="36"/>
-      <c r="AA94" s="36"/>
+      <c r="F94" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G94" s="36"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="35"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
+      <c r="A95" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="26"/>
       <c r="E95" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F95" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="36"/>
-      <c r="W95" s="36"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
-      <c r="Z95" s="36"/>
-      <c r="AA95" s="36"/>
+      <c r="F95" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G95" s="36"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
+      <c r="AA95" s="35"/>
     </row>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
